--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gdf11-Acvr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gdf11-Acvr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,13 +91,13 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Gdf11</t>
   </si>
   <si>
     <t>Acvr1b</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7911256666666667</v>
+        <v>1.442444333333333</v>
       </c>
       <c r="H2">
-        <v>2.373377</v>
+        <v>4.327332999999999</v>
       </c>
       <c r="I2">
-        <v>0.09841665988682347</v>
+        <v>0.1935924704900452</v>
       </c>
       <c r="J2">
-        <v>0.09841665988682348</v>
+        <v>0.1935924704900451</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.879801666666667</v>
+        <v>2.874243666666667</v>
       </c>
       <c r="N2">
-        <v>5.639405</v>
+        <v>8.622731</v>
       </c>
       <c r="O2">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="P2">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="Q2">
-        <v>1.487159346742778</v>
+        <v>4.145936489602555</v>
       </c>
       <c r="R2">
-        <v>13.384434120685</v>
+        <v>37.31342840642299</v>
       </c>
       <c r="S2">
-        <v>0.007349835761680893</v>
+        <v>0.0208878924066132</v>
       </c>
       <c r="T2">
-        <v>0.007349835761680894</v>
+        <v>0.02088789240661319</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7911256666666667</v>
+        <v>1.442444333333333</v>
       </c>
       <c r="H3">
-        <v>2.373377</v>
+        <v>4.327332999999999</v>
       </c>
       <c r="I3">
-        <v>0.09841665988682347</v>
+        <v>0.1935924704900452</v>
       </c>
       <c r="J3">
-        <v>0.09841665988682348</v>
+        <v>0.1935924704900451</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.803280666666667</v>
+        <v>5.803280666666666</v>
       </c>
       <c r="N3">
         <v>17.409842</v>
       </c>
       <c r="O3">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="P3">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="Q3">
-        <v>4.591124286270444</v>
+        <v>8.37090931237622</v>
       </c>
       <c r="R3">
-        <v>41.32011857643401</v>
+        <v>75.33818381138597</v>
       </c>
       <c r="S3">
-        <v>0.02269024468659619</v>
+        <v>0.04217398252504172</v>
       </c>
       <c r="T3">
-        <v>0.0226902446865962</v>
+        <v>0.04217398252504171</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7911256666666667</v>
+        <v>1.442444333333333</v>
       </c>
       <c r="H4">
-        <v>2.373377</v>
+        <v>4.327332999999999</v>
       </c>
       <c r="I4">
-        <v>0.09841665988682347</v>
+        <v>0.1935924704900452</v>
       </c>
       <c r="J4">
-        <v>0.09841665988682348</v>
+        <v>0.1935924704900451</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.498281</v>
+        <v>5.697719999999999</v>
       </c>
       <c r="N4">
-        <v>13.494843</v>
+        <v>17.09316</v>
       </c>
       <c r="O4">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="P4">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="Q4">
-        <v>3.558705554979</v>
+        <v>8.218643926919999</v>
       </c>
       <c r="R4">
-        <v>32.028349994811</v>
+        <v>73.96779534227998</v>
       </c>
       <c r="S4">
-        <v>0.01758782702779266</v>
+        <v>0.04140684511311143</v>
       </c>
       <c r="T4">
-        <v>0.01758782702779266</v>
+        <v>0.04140684511311142</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7911256666666667</v>
+        <v>1.442444333333333</v>
       </c>
       <c r="H5">
-        <v>2.373377</v>
+        <v>4.327332999999999</v>
       </c>
       <c r="I5">
-        <v>0.09841665988682347</v>
+        <v>0.1935924704900452</v>
       </c>
       <c r="J5">
-        <v>0.09841665988682348</v>
+        <v>0.1935924704900451</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.041168333333333</v>
+        <v>1.156459333333333</v>
       </c>
       <c r="N5">
-        <v>6.123505</v>
+        <v>3.469378</v>
       </c>
       <c r="O5">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="P5">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="Q5">
-        <v>1.614820658487222</v>
+        <v>1.668128212097111</v>
       </c>
       <c r="R5">
-        <v>14.533385926385</v>
+        <v>15.013153908874</v>
       </c>
       <c r="S5">
-        <v>0.00798076322516857</v>
+        <v>0.008404297244326755</v>
       </c>
       <c r="T5">
-        <v>0.00798076322516857</v>
+        <v>0.008404297244326753</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7911256666666667</v>
+        <v>1.442444333333333</v>
       </c>
       <c r="H6">
-        <v>2.373377</v>
+        <v>4.327332999999999</v>
       </c>
       <c r="I6">
-        <v>0.09841665988682347</v>
+        <v>0.1935924704900452</v>
       </c>
       <c r="J6">
-        <v>0.09841665988682348</v>
+        <v>0.1935924704900451</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.434522</v>
+        <v>6.571656999999999</v>
       </c>
       <c r="N6">
-        <v>19.303566</v>
+        <v>19.714971</v>
       </c>
       <c r="O6">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="P6">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="Q6">
-        <v>5.090515506931334</v>
+        <v>9.479249400260331</v>
       </c>
       <c r="R6">
-        <v>45.814639562382</v>
+        <v>85.31324460234298</v>
       </c>
       <c r="S6">
-        <v>0.02515833491561031</v>
+        <v>0.04775797749547091</v>
       </c>
       <c r="T6">
-        <v>0.02515833491561032</v>
+        <v>0.0477579774954709</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7911256666666667</v>
+        <v>1.442444333333333</v>
       </c>
       <c r="H7">
-        <v>2.373377</v>
+        <v>4.327332999999999</v>
       </c>
       <c r="I7">
-        <v>0.09841665988682347</v>
+        <v>0.1935924704900452</v>
       </c>
       <c r="J7">
-        <v>0.09841665988682348</v>
+        <v>0.1935924704900451</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.514094</v>
+        <v>4.535609</v>
       </c>
       <c r="N7">
-        <v>13.542282</v>
+        <v>13.606827</v>
       </c>
       <c r="O7">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="P7">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="Q7">
-        <v>3.571215625146</v>
+        <v>6.542363500265666</v>
       </c>
       <c r="R7">
-        <v>32.140940626314</v>
+        <v>58.88127150239099</v>
       </c>
       <c r="S7">
-        <v>0.01764965426997483</v>
+        <v>0.03296147570548118</v>
       </c>
       <c r="T7">
-        <v>0.01764965426997484</v>
+        <v>0.03296147570548117</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>8.490075000000001</v>
       </c>
       <c r="I8">
-        <v>0.3520573527461599</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="J8">
-        <v>0.35205735274616</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.879801666666667</v>
+        <v>2.874243666666667</v>
       </c>
       <c r="N8">
-        <v>5.639405</v>
+        <v>8.622731</v>
       </c>
       <c r="O8">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="P8">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="Q8">
-        <v>5.319885711708334</v>
+        <v>8.134181432758334</v>
       </c>
       <c r="R8">
-        <v>47.878971405375</v>
+        <v>73.20763289482501</v>
       </c>
       <c r="S8">
-        <v>0.02629192785400419</v>
+        <v>0.04098130953270215</v>
       </c>
       <c r="T8">
-        <v>0.0262919278540042</v>
+        <v>0.04098130953270215</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>8.490075000000001</v>
       </c>
       <c r="I9">
-        <v>0.3520573527461599</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="J9">
-        <v>0.35205735274616</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.803280666666667</v>
+        <v>5.803280666666666</v>
       </c>
       <c r="N9">
         <v>17.409842</v>
       </c>
       <c r="O9">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="P9">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="Q9">
-        <v>16.42342936868334</v>
+        <v>16.42342936868333</v>
       </c>
       <c r="R9">
         <v>147.81086431815</v>
       </c>
       <c r="S9">
-        <v>0.08116783770869658</v>
+        <v>0.08274386895722924</v>
       </c>
       <c r="T9">
-        <v>0.08116783770869662</v>
+        <v>0.08274386895722922</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>8.490075000000001</v>
       </c>
       <c r="I10">
-        <v>0.3520573527461599</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="J10">
-        <v>0.35205735274616</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.498281</v>
+        <v>5.697719999999999</v>
       </c>
       <c r="N10">
-        <v>13.494843</v>
+        <v>17.09316</v>
       </c>
       <c r="O10">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="P10">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="Q10">
-        <v>12.730247687025</v>
+        <v>16.124690043</v>
       </c>
       <c r="R10">
-        <v>114.572229183225</v>
+        <v>145.122210387</v>
       </c>
       <c r="S10">
-        <v>0.06291540305353374</v>
+        <v>0.081238772362492</v>
       </c>
       <c r="T10">
-        <v>0.06291540305353377</v>
+        <v>0.081238772362492</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>8.490075000000001</v>
       </c>
       <c r="I11">
-        <v>0.3520573527461599</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="J11">
-        <v>0.35205735274616</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.041168333333333</v>
+        <v>1.156459333333333</v>
       </c>
       <c r="N11">
-        <v>6.123505</v>
+        <v>3.469378</v>
       </c>
       <c r="O11">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="P11">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="Q11">
-        <v>5.776557412541667</v>
+        <v>3.272808824816667</v>
       </c>
       <c r="R11">
-        <v>51.98901671287501</v>
+        <v>29.45527942335</v>
       </c>
       <c r="S11">
-        <v>0.02854888976295087</v>
+        <v>0.01648893531573084</v>
       </c>
       <c r="T11">
-        <v>0.02854888976295088</v>
+        <v>0.01648893531573084</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1169,10 +1169,10 @@
         <v>8.490075000000001</v>
       </c>
       <c r="I12">
-        <v>0.3520573527461599</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="J12">
-        <v>0.35205735274616</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.434522</v>
+        <v>6.571656999999999</v>
       </c>
       <c r="N12">
-        <v>19.303566</v>
+        <v>19.714971</v>
       </c>
       <c r="O12">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="P12">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="Q12">
-        <v>18.20985812305</v>
+        <v>18.597953601425</v>
       </c>
       <c r="R12">
-        <v>163.88872310745</v>
+        <v>167.381582412825</v>
       </c>
       <c r="S12">
-        <v>0.08999672210047129</v>
+        <v>0.09369947050177563</v>
       </c>
       <c r="T12">
-        <v>0.08999672210047131</v>
+        <v>0.09369947050177563</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>8.490075000000001</v>
       </c>
       <c r="I13">
-        <v>0.3520573527461599</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="J13">
-        <v>0.35205735274616</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.514094</v>
+        <v>4.535609</v>
       </c>
       <c r="N13">
-        <v>13.542282</v>
+        <v>13.606827</v>
       </c>
       <c r="O13">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="P13">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="Q13">
-        <v>12.77499887235</v>
+        <v>12.835886860225</v>
       </c>
       <c r="R13">
-        <v>114.97498985115</v>
+        <v>115.522981742025</v>
       </c>
       <c r="S13">
-        <v>0.06313657226650322</v>
+        <v>0.06466925490832649</v>
       </c>
       <c r="T13">
-        <v>0.06313657226650325</v>
+        <v>0.06466925490832648</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1293,10 +1293,10 @@
         <v>1.185082</v>
       </c>
       <c r="I14">
-        <v>0.04914171331903718</v>
+        <v>0.05301717064836096</v>
       </c>
       <c r="J14">
-        <v>0.0491417133190372</v>
+        <v>0.05301717064836094</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.879801666666667</v>
+        <v>2.874243666666667</v>
       </c>
       <c r="N14">
-        <v>5.639405</v>
+        <v>8.622731</v>
       </c>
       <c r="O14">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="P14">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="Q14">
-        <v>0.7425730395788889</v>
+        <v>1.135404810993556</v>
       </c>
       <c r="R14">
-        <v>6.68315735621</v>
+        <v>10.218643298942</v>
       </c>
       <c r="S14">
-        <v>0.003669942897451317</v>
+        <v>0.005720351382482926</v>
       </c>
       <c r="T14">
-        <v>0.003669942897451318</v>
+        <v>0.005720351382482925</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1355,10 +1355,10 @@
         <v>1.185082</v>
       </c>
       <c r="I15">
-        <v>0.04914171331903718</v>
+        <v>0.05301717064836096</v>
       </c>
       <c r="J15">
-        <v>0.0491417133190372</v>
+        <v>0.05301717064836094</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,16 +1367,16 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.803280666666667</v>
+        <v>5.803280666666666</v>
       </c>
       <c r="N15">
         <v>17.409842</v>
       </c>
       <c r="O15">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="P15">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="Q15">
         <v>2.292454486338222</v>
@@ -1385,10 +1385,10 @@
         <v>20.632090377044</v>
       </c>
       <c r="S15">
-        <v>0.01132976368848303</v>
+        <v>0.01154975306008146</v>
       </c>
       <c r="T15">
-        <v>0.01132976368848303</v>
+        <v>0.01154975306008146</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1417,10 +1417,10 @@
         <v>1.185082</v>
       </c>
       <c r="I16">
-        <v>0.04914171331903718</v>
+        <v>0.05301717064836096</v>
       </c>
       <c r="J16">
-        <v>0.0491417133190372</v>
+        <v>0.05301717064836094</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.498281</v>
+        <v>5.697719999999999</v>
       </c>
       <c r="N16">
-        <v>13.494843</v>
+        <v>17.09316</v>
       </c>
       <c r="O16">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="P16">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="Q16">
-        <v>1.776943948014</v>
+        <v>2.25075513768</v>
       </c>
       <c r="R16">
-        <v>15.992495532126</v>
+        <v>20.25679623912</v>
       </c>
       <c r="S16">
-        <v>0.00878200860198383</v>
+        <v>0.01133966505936482</v>
       </c>
       <c r="T16">
-        <v>0.008782008601983833</v>
+        <v>0.01133966505936481</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1479,10 +1479,10 @@
         <v>1.185082</v>
       </c>
       <c r="I17">
-        <v>0.04914171331903718</v>
+        <v>0.05301717064836096</v>
       </c>
       <c r="J17">
-        <v>0.0491417133190372</v>
+        <v>0.05301717064836094</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.041168333333333</v>
+        <v>1.156459333333333</v>
       </c>
       <c r="N17">
-        <v>6.123505</v>
+        <v>3.469378</v>
       </c>
       <c r="O17">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="P17">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="Q17">
-        <v>0.8063172836011111</v>
+        <v>0.4568330465551111</v>
       </c>
       <c r="R17">
-        <v>7.256855552409999</v>
+        <v>4.111497418996</v>
       </c>
       <c r="S17">
-        <v>0.003984979564733802</v>
+        <v>0.002301598094461702</v>
       </c>
       <c r="T17">
-        <v>0.003984979564733804</v>
+        <v>0.002301598094461702</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -1541,10 +1541,10 @@
         <v>1.185082</v>
       </c>
       <c r="I18">
-        <v>0.04914171331903718</v>
+        <v>0.05301717064836096</v>
       </c>
       <c r="J18">
-        <v>0.0491417133190372</v>
+        <v>0.05301717064836094</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.434522</v>
+        <v>6.571656999999999</v>
       </c>
       <c r="N18">
-        <v>19.303566</v>
+        <v>19.714971</v>
       </c>
       <c r="O18">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="P18">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="Q18">
-        <v>2.541812066934667</v>
+        <v>2.595984140291333</v>
       </c>
       <c r="R18">
-        <v>22.876308602412</v>
+        <v>23.363857262622</v>
       </c>
       <c r="S18">
-        <v>0.01256213819315739</v>
+        <v>0.01307898409627539</v>
       </c>
       <c r="T18">
-        <v>0.01256213819315739</v>
+        <v>0.01307898409627539</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1603,10 +1603,10 @@
         <v>1.185082</v>
       </c>
       <c r="I19">
-        <v>0.04914171331903718</v>
+        <v>0.05301717064836096</v>
       </c>
       <c r="J19">
-        <v>0.0491417133190372</v>
+        <v>0.05301717064836094</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.514094</v>
+        <v>4.535609</v>
       </c>
       <c r="N19">
-        <v>13.542282</v>
+        <v>13.606827</v>
       </c>
       <c r="O19">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="P19">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="Q19">
-        <v>1.783190515236</v>
+        <v>1.791689528312667</v>
       </c>
       <c r="R19">
-        <v>16.048714637124</v>
+        <v>16.125205754814</v>
       </c>
       <c r="S19">
-        <v>0.008812880373227817</v>
+        <v>0.009026818955694665</v>
       </c>
       <c r="T19">
-        <v>0.008812880373227821</v>
+        <v>0.009026818955694661</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.773442666666667</v>
+        <v>2.258134333333333</v>
       </c>
       <c r="H20">
-        <v>11.320328</v>
+        <v>6.774403</v>
       </c>
       <c r="I20">
-        <v>0.4694192581217752</v>
+        <v>0.3030673657112068</v>
       </c>
       <c r="J20">
-        <v>0.4694192581217753</v>
+        <v>0.3030673657112067</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.879801666666667</v>
+        <v>2.874243666666667</v>
       </c>
       <c r="N20">
-        <v>5.639405</v>
+        <v>8.622731</v>
       </c>
       <c r="O20">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="P20">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="Q20">
-        <v>7.093323813871111</v>
+        <v>6.490428306065888</v>
       </c>
       <c r="R20">
-        <v>63.83991432484</v>
+        <v>58.413854754593</v>
       </c>
       <c r="S20">
-        <v>0.03505660987207575</v>
+        <v>0.0326998178746673</v>
       </c>
       <c r="T20">
-        <v>0.03505660987207576</v>
+        <v>0.0326998178746673</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.773442666666667</v>
+        <v>2.258134333333333</v>
       </c>
       <c r="H21">
-        <v>11.320328</v>
+        <v>6.774403</v>
       </c>
       <c r="I21">
-        <v>0.4694192581217752</v>
+        <v>0.3030673657112068</v>
       </c>
       <c r="J21">
-        <v>0.4694192581217753</v>
+        <v>0.3030673657112067</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.803280666666667</v>
+        <v>5.803280666666666</v>
       </c>
       <c r="N21">
         <v>17.409842</v>
       </c>
       <c r="O21">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="P21">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="Q21">
-        <v>21.89834687424178</v>
+        <v>13.10458731936955</v>
       </c>
       <c r="R21">
-        <v>197.085121868176</v>
+        <v>117.941285874326</v>
       </c>
       <c r="S21">
-        <v>0.1082259633646597</v>
+        <v>0.06602301087981678</v>
       </c>
       <c r="T21">
-        <v>0.1082259633646598</v>
+        <v>0.06602301087981677</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.773442666666667</v>
+        <v>2.258134333333333</v>
       </c>
       <c r="H22">
-        <v>11.320328</v>
+        <v>6.774403</v>
       </c>
       <c r="I22">
-        <v>0.4694192581217752</v>
+        <v>0.3030673657112068</v>
       </c>
       <c r="J22">
-        <v>0.4694192581217753</v>
+        <v>0.3030673657112067</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.498281</v>
+        <v>5.697719999999999</v>
       </c>
       <c r="N22">
-        <v>13.494843</v>
+        <v>17.09316</v>
       </c>
       <c r="O22">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="P22">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="Q22">
-        <v>16.974005452056</v>
+        <v>12.86621715372</v>
       </c>
       <c r="R22">
-        <v>152.766049068504</v>
+        <v>115.79595438348</v>
       </c>
       <c r="S22">
-        <v>0.08388889365738271</v>
+        <v>0.06482206378727901</v>
       </c>
       <c r="T22">
-        <v>0.08388889365738272</v>
+        <v>0.06482206378727899</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.773442666666667</v>
+        <v>2.258134333333333</v>
       </c>
       <c r="H23">
-        <v>11.320328</v>
+        <v>6.774403</v>
       </c>
       <c r="I23">
-        <v>0.4694192581217752</v>
+        <v>0.3030673657112068</v>
       </c>
       <c r="J23">
-        <v>0.4694192581217753</v>
+        <v>0.3030673657112067</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.041168333333333</v>
+        <v>1.156459333333333</v>
       </c>
       <c r="N23">
-        <v>6.123505</v>
+        <v>3.469378</v>
       </c>
       <c r="O23">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="P23">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="Q23">
-        <v>7.702231678848888</v>
+        <v>2.611440525703777</v>
       </c>
       <c r="R23">
-        <v>69.32008510963999</v>
+        <v>23.502964731334</v>
       </c>
       <c r="S23">
-        <v>0.03806595302779375</v>
+        <v>0.01315685584281563</v>
       </c>
       <c r="T23">
-        <v>0.03806595302779376</v>
+        <v>0.01315685584281563</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,10 +1892,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.773442666666667</v>
+        <v>2.258134333333333</v>
       </c>
       <c r="H24">
-        <v>11.320328</v>
+        <v>6.774403</v>
       </c>
       <c r="I24">
-        <v>0.4694192581217752</v>
+        <v>0.3030673657112068</v>
       </c>
       <c r="J24">
-        <v>0.4694192581217753</v>
+        <v>0.3030673657112067</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.434522</v>
+        <v>6.571656999999999</v>
       </c>
       <c r="N24">
-        <v>19.303566</v>
+        <v>19.714971</v>
       </c>
       <c r="O24">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="P24">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="Q24">
-        <v>24.28029985440533</v>
+        <v>14.83968429859033</v>
       </c>
       <c r="R24">
-        <v>218.522698689648</v>
+        <v>133.557158687313</v>
       </c>
       <c r="S24">
-        <v>0.1199980463190471</v>
+        <v>0.07476470750442608</v>
       </c>
       <c r="T24">
-        <v>0.1199980463190471</v>
+        <v>0.07476470750442607</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,14 +1954,14 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
       <c r="E25">
         <v>3</v>
       </c>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.773442666666667</v>
+        <v>2.258134333333333</v>
       </c>
       <c r="H25">
-        <v>11.320328</v>
+        <v>6.774403</v>
       </c>
       <c r="I25">
-        <v>0.4694192581217752</v>
+        <v>0.3030673657112068</v>
       </c>
       <c r="J25">
-        <v>0.4694192581217753</v>
+        <v>0.3030673657112067</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.514094</v>
+        <v>4.535609</v>
       </c>
       <c r="N25">
-        <v>13.542282</v>
+        <v>13.606827</v>
       </c>
       <c r="O25">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="P25">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="Q25">
-        <v>17.033674900944</v>
+        <v>10.24201440547566</v>
       </c>
       <c r="R25">
-        <v>153.303074108496</v>
+        <v>92.17812964928099</v>
       </c>
       <c r="S25">
-        <v>0.08418379188081609</v>
+        <v>0.051600909822202</v>
       </c>
       <c r="T25">
-        <v>0.08418379188081614</v>
+        <v>0.05160090982220199</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.2489133333333333</v>
+        <v>0.337485</v>
       </c>
       <c r="H26">
-        <v>0.74674</v>
+        <v>1.012455</v>
       </c>
       <c r="I26">
-        <v>0.03096501592620411</v>
+        <v>0.04529433364846171</v>
       </c>
       <c r="J26">
-        <v>0.03096501592620412</v>
+        <v>0.0452943336484617</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.879801666666667</v>
+        <v>2.874243666666667</v>
       </c>
       <c r="N26">
-        <v>5.639405</v>
+        <v>8.622731</v>
       </c>
       <c r="O26">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="P26">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="Q26">
-        <v>0.4679076988555555</v>
+        <v>0.9700141238450001</v>
       </c>
       <c r="R26">
-        <v>4.2111692897</v>
+        <v>8.730127114605001</v>
       </c>
       <c r="S26">
-        <v>0.002312492434483687</v>
+        <v>0.004887086597342421</v>
       </c>
       <c r="T26">
-        <v>0.002312492434483688</v>
+        <v>0.004887086597342421</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.2489133333333333</v>
+        <v>0.337485</v>
       </c>
       <c r="H27">
-        <v>0.74674</v>
+        <v>1.012455</v>
       </c>
       <c r="I27">
-        <v>0.03096501592620411</v>
+        <v>0.04529433364846171</v>
       </c>
       <c r="J27">
-        <v>0.03096501592620412</v>
+        <v>0.0452943336484617</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>5.803280666666667</v>
+        <v>5.803280666666666</v>
       </c>
       <c r="N27">
         <v>17.409842</v>
       </c>
       <c r="O27">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="P27">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="Q27">
-        <v>1.444513935008889</v>
+        <v>1.95852017579</v>
       </c>
       <c r="R27">
-        <v>13.00062541508</v>
+        <v>17.62668158211</v>
       </c>
       <c r="S27">
-        <v>0.007139073698476405</v>
+        <v>0.009867338491720218</v>
       </c>
       <c r="T27">
-        <v>0.007139073698476409</v>
+        <v>0.009867338491720216</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,16 +2155,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.2489133333333333</v>
+        <v>0.337485</v>
       </c>
       <c r="H28">
-        <v>0.74674</v>
+        <v>1.012455</v>
       </c>
       <c r="I28">
-        <v>0.03096501592620411</v>
+        <v>0.04529433364846171</v>
       </c>
       <c r="J28">
-        <v>0.03096501592620412</v>
+        <v>0.0452943336484617</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>4.498281</v>
+        <v>5.697719999999999</v>
       </c>
       <c r="N28">
-        <v>13.494843</v>
+        <v>17.09316</v>
       </c>
       <c r="O28">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="P28">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="Q28">
-        <v>1.11968211798</v>
+        <v>1.9228950342</v>
       </c>
       <c r="R28">
-        <v>10.07713906182</v>
+        <v>17.3060553078</v>
       </c>
       <c r="S28">
-        <v>0.00553369058296844</v>
+        <v>0.009687853319583967</v>
       </c>
       <c r="T28">
-        <v>0.005533690582968442</v>
+        <v>0.009687853319583965</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,10 +2202,10 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.2489133333333333</v>
+        <v>0.337485</v>
       </c>
       <c r="H29">
-        <v>0.74674</v>
+        <v>1.012455</v>
       </c>
       <c r="I29">
-        <v>0.03096501592620411</v>
+        <v>0.04529433364846171</v>
       </c>
       <c r="J29">
-        <v>0.03096501592620412</v>
+        <v>0.0452943336484617</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.041168333333333</v>
+        <v>1.156459333333333</v>
       </c>
       <c r="N29">
-        <v>6.123505</v>
+        <v>3.469378</v>
       </c>
       <c r="O29">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="P29">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="Q29">
-        <v>0.5080740137444444</v>
+        <v>0.39028767811</v>
       </c>
       <c r="R29">
-        <v>4.572666123699999</v>
+        <v>3.51258910299</v>
       </c>
       <c r="S29">
-        <v>0.002511002310531524</v>
+        <v>0.001966331864569897</v>
       </c>
       <c r="T29">
-        <v>0.002511002310531525</v>
+        <v>0.001966331864569897</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,10 +2264,10 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
@@ -2279,16 +2279,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.2489133333333333</v>
+        <v>0.337485</v>
       </c>
       <c r="H30">
-        <v>0.74674</v>
+        <v>1.012455</v>
       </c>
       <c r="I30">
-        <v>0.03096501592620411</v>
+        <v>0.04529433364846171</v>
       </c>
       <c r="J30">
-        <v>0.03096501592620412</v>
+        <v>0.0452943336484617</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.434522</v>
+        <v>6.571656999999999</v>
       </c>
       <c r="N30">
-        <v>19.303566</v>
+        <v>19.714971</v>
       </c>
       <c r="O30">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="P30">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="Q30">
-        <v>1.601638319426667</v>
+        <v>2.217835662645</v>
       </c>
       <c r="R30">
-        <v>14.41474487484</v>
+        <v>19.960520963805</v>
       </c>
       <c r="S30">
-        <v>0.007915613497089944</v>
+        <v>0.01117381146890637</v>
       </c>
       <c r="T30">
-        <v>0.007915613497089947</v>
+        <v>0.01117381146890637</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2341,16 +2341,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.2489133333333333</v>
+        <v>0.337485</v>
       </c>
       <c r="H31">
-        <v>0.74674</v>
+        <v>1.012455</v>
       </c>
       <c r="I31">
-        <v>0.03096501592620411</v>
+        <v>0.04529433364846171</v>
       </c>
       <c r="J31">
-        <v>0.03096501592620412</v>
+        <v>0.0452943336484617</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.514094</v>
+        <v>4.535609</v>
       </c>
       <c r="N31">
-        <v>13.542282</v>
+        <v>13.606827</v>
       </c>
       <c r="O31">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="P31">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="Q31">
-        <v>1.12361818452</v>
+        <v>1.530700003365</v>
       </c>
       <c r="R31">
-        <v>10.11256366068</v>
+        <v>13.776300030285</v>
       </c>
       <c r="S31">
-        <v>0.005553143402654111</v>
+        <v>0.007711911906338837</v>
       </c>
       <c r="T31">
-        <v>0.005553143402654114</v>
+        <v>0.007711911906338836</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G32">
+        <v>0.187816</v>
+      </c>
+      <c r="H32">
+        <v>0.5634479999999999</v>
+      </c>
+      <c r="I32">
+        <v>0.02520704792366915</v>
+      </c>
+      <c r="J32">
+        <v>0.02520704792366914</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2.874243666666667</v>
+      </c>
+      <c r="N32">
+        <v>8.622731</v>
+      </c>
+      <c r="O32">
+        <v>0.1078962025420678</v>
+      </c>
+      <c r="P32">
+        <v>0.1078962025420678</v>
+      </c>
+      <c r="Q32">
+        <v>0.5398289484986666</v>
+      </c>
+      <c r="R32">
+        <v>4.858460536488</v>
+      </c>
+      <c r="S32">
+        <v>0.002719744748259816</v>
+      </c>
+      <c r="T32">
+        <v>0.002719744748259815</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G33">
+        <v>0.187816</v>
+      </c>
+      <c r="H33">
+        <v>0.5634479999999999</v>
+      </c>
+      <c r="I33">
+        <v>0.02520704792366915</v>
+      </c>
+      <c r="J33">
+        <v>0.02520704792366914</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>5.803280666666666</v>
+      </c>
+      <c r="N33">
+        <v>17.409842</v>
+      </c>
+      <c r="O33">
+        <v>0.2178492914434416</v>
+      </c>
+      <c r="P33">
+        <v>0.2178492914434416</v>
+      </c>
+      <c r="Q33">
+        <v>1.089948961690666</v>
+      </c>
+      <c r="R33">
+        <v>9.809540655215997</v>
+      </c>
+      <c r="S33">
+        <v>0.0054913375295522</v>
+      </c>
+      <c r="T33">
+        <v>0.005491337529552198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34">
+        <v>0.187816</v>
+      </c>
+      <c r="H34">
+        <v>0.5634479999999999</v>
+      </c>
+      <c r="I34">
+        <v>0.02520704792366915</v>
+      </c>
+      <c r="J34">
+        <v>0.02520704792366914</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>5.697719999999999</v>
+      </c>
+      <c r="N34">
+        <v>17.09316</v>
+      </c>
+      <c r="O34">
+        <v>0.2138866506961624</v>
+      </c>
+      <c r="P34">
+        <v>0.2138866506961624</v>
+      </c>
+      <c r="Q34">
+        <v>1.07012297952</v>
+      </c>
+      <c r="R34">
+        <v>9.631106815679997</v>
+      </c>
+      <c r="S34">
+        <v>0.00539145105433125</v>
+      </c>
+      <c r="T34">
+        <v>0.005391451054331248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G35">
+        <v>0.187816</v>
+      </c>
+      <c r="H35">
+        <v>0.5634479999999999</v>
+      </c>
+      <c r="I35">
+        <v>0.02520704792366915</v>
+      </c>
+      <c r="J35">
+        <v>0.02520704792366914</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1.156459333333333</v>
+      </c>
+      <c r="N35">
+        <v>3.469378</v>
+      </c>
+      <c r="O35">
+        <v>0.04341231465796556</v>
+      </c>
+      <c r="P35">
+        <v>0.04341231465796556</v>
+      </c>
+      <c r="Q35">
+        <v>0.2172015661493333</v>
+      </c>
+      <c r="R35">
+        <v>1.954814095344</v>
+      </c>
+      <c r="S35">
+        <v>0.001094296296060743</v>
+      </c>
+      <c r="T35">
+        <v>0.001094296296060742</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36">
+        <v>0.187816</v>
+      </c>
+      <c r="H36">
+        <v>0.5634479999999999</v>
+      </c>
+      <c r="I36">
+        <v>0.02520704792366915</v>
+      </c>
+      <c r="J36">
+        <v>0.02520704792366914</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>6.571656999999999</v>
+      </c>
+      <c r="N36">
+        <v>19.714971</v>
+      </c>
+      <c r="O36">
+        <v>0.24669336247727</v>
+      </c>
+      <c r="P36">
+        <v>0.24669336247727</v>
+      </c>
+      <c r="Q36">
+        <v>1.234262331112</v>
+      </c>
+      <c r="R36">
+        <v>11.108360980008</v>
+      </c>
+      <c r="S36">
+        <v>0.006218411410415629</v>
+      </c>
+      <c r="T36">
+        <v>0.006218411410415628</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G37">
+        <v>0.187816</v>
+      </c>
+      <c r="H37">
+        <v>0.5634479999999999</v>
+      </c>
+      <c r="I37">
+        <v>0.02520704792366915</v>
+      </c>
+      <c r="J37">
+        <v>0.02520704792366914</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>4.535609</v>
+      </c>
+      <c r="N37">
+        <v>13.606827</v>
+      </c>
+      <c r="O37">
+        <v>0.1702621781830927</v>
+      </c>
+      <c r="P37">
+        <v>0.1702621781830927</v>
+      </c>
+      <c r="Q37">
+        <v>0.8518599399439999</v>
+      </c>
+      <c r="R37">
+        <v>7.666739459495999</v>
+      </c>
+      <c r="S37">
+        <v>0.004291806885049512</v>
+      </c>
+      <c r="T37">
+        <v>0.004291806885049512</v>
       </c>
     </row>
   </sheetData>
